--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3018073.95264601</v>
+        <v>3093603.622310815</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>147.6709863627792</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>46.59802246633417</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>14.12438890633705</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>111.1023876523963</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>54.70191565295227</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.70191565295202</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>330.2536583457298</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>157.5080301469849</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>49.43931059510331</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>5.562624396425339</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014439</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>88.11883439591764</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4.012178247057245</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>183.1796758467005</v>
+        <v>206.469003247207</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2251,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.85482937789016</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>12.26549352701658</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.070639042240579</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>95.31089658769062</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>215.3679785057053</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.1291651532057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>11.89446409566064</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>83.2792258197513</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>215.2988434523162</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>127.7178027211456</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3478,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>100.5492757878625</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>269.9829196837181</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>252.8505008312594</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>89.27741646322683</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>128.3837363285902</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1160.323631012988</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1160.323631012988</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>774.5353784147437</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733133</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>2122.655239596916</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4391,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4425,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4513,22 +4515,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2682.882031516872</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2682.882031516872</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2464.247364488935</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2464.247364488935</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.261100528459</v>
+        <v>2464.247364488935</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.492445258345</v>
+        <v>2464.247364488935</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.492445258345</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.353113282533</v>
+        <v>2090.781606227855</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.8539665087374</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>154.8539665087374</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>154.8539665087374</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>154.8539665087374</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>154.8539665087374</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>154.8539665087374</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>154.8539665087374</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8539665087374</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="W7" t="n">
-        <v>154.8539665087374</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="X7" t="n">
-        <v>154.8539665087374</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>154.8539665087374</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>798.5184404945476</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>798.5184404945476</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>387.53253570494</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>1735.440571214345</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.301239238533</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4902,22 +4904,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.5382038240415</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240415</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="X10" t="n">
-        <v>149.5382038240415</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.5382038240415</v>
+        <v>154.8539665087372</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,34 +5290,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5343,13 +5345,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028587</v>
@@ -5358,10 +5360,10 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
@@ -5370,7 +5372,7 @@
         <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705744</v>
+        <v>634.6737565393115</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>634.6737565393115</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>484.5571171269758</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>336.6440235445826</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>336.6440235445826</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5437,13 +5439,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1494.863565257845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1294.943555173397</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T16" t="n">
-        <v>1071.158139962903</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="U16" t="n">
-        <v>782.0295011764613</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="V16" t="n">
-        <v>527.3450129705744</v>
+        <v>1044.311772267569</v>
       </c>
       <c r="W16" t="n">
-        <v>527.3450129705744</v>
+        <v>1044.311772267569</v>
       </c>
       <c r="X16" t="n">
-        <v>527.3450129705744</v>
+        <v>816.3222213695512</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3450129705744</v>
+        <v>816.3222213695512</v>
       </c>
     </row>
     <row r="17">
@@ -5513,7 +5515,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514085</v>
@@ -5525,13 +5527,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,28 +5594,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>955.5012031746817</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>955.5012031746817</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>955.5012031746817</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>727.5116522766643</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>727.5116522766643</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5731,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
@@ -5753,43 +5755,43 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>498.905640096559</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>745.6707680030231</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.59991596447</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>824.3515998808206</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="C22" t="n">
-        <v>824.3515998808206</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D22" t="n">
-        <v>674.2349604684848</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
         <v>359.1696912903951</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1450.578059065085</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1450.578059065085</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1226.79264385459</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1226.79264385459</v>
+        <v>1286.606873072428</v>
       </c>
       <c r="V22" t="n">
-        <v>1226.79264385459</v>
+        <v>1286.606873072428</v>
       </c>
       <c r="W22" t="n">
-        <v>1226.79264385459</v>
+        <v>1286.606873072428</v>
       </c>
       <c r="X22" t="n">
-        <v>1226.79264385459</v>
+        <v>1058.617322174411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1006.00006471106</v>
+        <v>837.8247430308809</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,10 +6004,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6069,25 +6071,25 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>807.3465877976912</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>638.4104048697843</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>488.2937654574486</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>340.3806718750554</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>193.4907243771451</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>193.4907243771451</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6181,16 +6183,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655742</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286137</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305963</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.9038434870662</v>
+        <v>988.9950526279309</v>
       </c>
     </row>
     <row r="26">
@@ -6221,52 +6223,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6300,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>474.7746905116418</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>721.5398184181058</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>857.6674326309349</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706323</v>
+        <v>857.6674326309349</v>
       </c>
       <c r="X28" t="n">
-        <v>303.4081673726149</v>
+        <v>857.6674326309349</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>857.6674326309349</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,22 +6451,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4015.609665787367</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>4015.609665787367</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>3865.493026375032</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>3717.579932792638</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4848.839962816656</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4559.711324030214</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>4305.026835824327</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>4015.609665787367</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>4015.609665787367</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>4015.609665787367</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,10 +6691,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6701,49 +6703,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6780,13 +6782,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
         <v>2051.878056918008</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>860.7301020851612</v>
+        <v>3946.383537937098</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>3777.447355009192</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>4576.814132808885</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>4576.814132808885</v>
       </c>
       <c r="V34" t="n">
-        <v>1298.996260473455</v>
+        <v>4576.814132808885</v>
       </c>
       <c r="W34" t="n">
-        <v>1298.996260473455</v>
+        <v>4576.814132808885</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.522681228691</v>
+        <v>4348.824581910868</v>
       </c>
       <c r="Y34" t="n">
-        <v>860.7301020851612</v>
+        <v>4128.032002767338</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6926,61 +6928,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>973.645920224716</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>718.9614320188291</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W37" t="n">
-        <v>429.5442619818685</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X37" t="n">
-        <v>429.5442619818685</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7516828383384</v>
+        <v>226.2249729967965</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7153,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7184,34 +7186,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7239,19 +7241,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
         <v>674.428562457161</v>
@@ -7269,10 +7271,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609669</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V40" t="n">
-        <v>731.31772835508</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181194</v>
+        <v>436.7412337363556</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201021</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383383</v>
       </c>
     </row>
     <row r="41">
@@ -7388,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1019.726309053207</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>765.0418208473204</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="W43" t="n">
-        <v>475.6246508103599</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X43" t="n">
-        <v>247.6350999123426</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.6350999123426</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7630,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7713,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>562.7003690904323</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C46" t="n">
-        <v>562.7003690904323</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D46" t="n">
-        <v>562.7003690904323</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>920.3704617345004</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
-        <v>692.3809108364831</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y46" t="n">
-        <v>562.7003690904323</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229574</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208048</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9173,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119833</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>213.2603911806622</v>
       </c>
       <c r="L21" t="n">
-        <v>180.0237016735865</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9717,28 +9719,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>127.6461250100646</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>62.79465928983075</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>62.79465928983205</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>85.30006332127743</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10364,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10434,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165111</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>104.8749102765743</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>192.3581855871779</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>78.37473406745994</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>105.9521741567355</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>103.0576765518769</v>
+        <v>79.76834915137033</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>62.10952302590261</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>273.9718588715608</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.7613411396967</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>53.60293177984551</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>36.76966481812269</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.45548819888904</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>209.6530969627286</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>138.2683352386379</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>10.41081193672093</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>21.19602564639055</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>185.6880766107149</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>16.54007865287292</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.0576765518768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.38685156731799</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>162.8602268606012</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.142098661519</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.20091702350459</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="F2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="K2" t="n">
         <v>625646.4955803343</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803348</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.495580334</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="O2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="P2" t="n">
         <v>625646.4955803343</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625646.4955803339</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.391791546571767e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007455</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="M4" t="n">
-        <v>7916.731656007396</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007481</v>
-      </c>
       <c r="O4" t="n">
-        <v>7916.731656007479</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871667</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871665</v>
@@ -26491,25 +26493,25 @@
         <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163910.5901024479</v>
+        <v>-163910.5901024483</v>
       </c>
       <c r="C6" t="n">
-        <v>426057.289112096</v>
+        <v>426057.2891120963</v>
       </c>
       <c r="D6" t="n">
-        <v>426057.2891120965</v>
+        <v>426057.2891120961</v>
       </c>
       <c r="E6" t="n">
-        <v>582.4014987135743</v>
+        <v>582.4014987138507</v>
       </c>
       <c r="F6" t="n">
+        <v>525742.4379756094</v>
+      </c>
+      <c r="G6" t="n">
         <v>525742.4379756103</v>
       </c>
-      <c r="G6" t="n">
-        <v>525742.4379756107</v>
-      </c>
       <c r="H6" t="n">
-        <v>525742.4379756101</v>
+        <v>525742.4379756098</v>
       </c>
       <c r="I6" t="n">
+        <v>525742.43797561</v>
+      </c>
+      <c r="J6" t="n">
+        <v>349319.2187830172</v>
+      </c>
+      <c r="K6" t="n">
         <v>525742.4379756103</v>
-      </c>
-      <c r="J6" t="n">
-        <v>349319.218783017</v>
-      </c>
-      <c r="K6" t="n">
-        <v>525742.4379756101</v>
       </c>
       <c r="L6" t="n">
         <v>525742.4379756101</v>
       </c>
       <c r="M6" t="n">
-        <v>390941.4227417725</v>
+        <v>390941.4227417728</v>
       </c>
       <c r="N6" t="n">
-        <v>525742.4379756099</v>
+        <v>525742.43797561</v>
       </c>
       <c r="O6" t="n">
-        <v>525742.4379756104</v>
+        <v>525742.4379756101</v>
       </c>
       <c r="P6" t="n">
-        <v>525742.4379756098</v>
+        <v>525742.4379756103</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541009</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26759,25 +26761,25 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26820,10 +26822,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>259.2050593789322</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>323.1330782121349</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>83.3620382482288</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.35401366847466</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>216.6498708177386</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>80.26370613938596</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.0077397360851</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>83.53051167506516</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>212.2230705314841</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>117.8075105035245</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>46.53208780508014</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.647069592719</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946996</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361495</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298633</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.39802836989225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734238</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221109</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081123</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109127</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349825</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005181</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504666</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523297</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686872</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408111</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951473</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951473</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>363.8358297686015</v>
       </c>
       <c r="L21" t="n">
-        <v>429.2814066296109</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>269.8880742213555</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>213.3700978777713</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>334.5577682773018</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>560.035498861915</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>387.2386125176826</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3093603.622310815</v>
+        <v>3086586.607419104</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8785190.206982883</v>
+        <v>8785190.206982881</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>147.6709863627792</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -709,22 +709,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>96.95377689311783</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>165.3902575986303</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>121.1693910461996</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14.12438890633705</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>54.70191565295202</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>252.7077160573364</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>330.2536583457298</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>99.90187484148903</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274076</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>104.5905865511314</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>88.11883439591764</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>206.469003247207</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>12.26549352701658</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>95.31089658769062</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>48.52899175806694</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052004</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>76.27978370493992</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>215.3679785057053</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>57.89557371380221</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
-        <v>83.2792258197513</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>127.7178027211456</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,13 +3717,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>269.9829196837181</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>89.27741646322683</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185925</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1529.2861479534</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>1160.323631012988</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1160.323631012988</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>774.5353784147437</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1915.885988017521</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.781606227855</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2682.882031516872</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2682.882031516872</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2464.247364488935</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2464.247364488935</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2464.247364488935</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2464.247364488935</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.781606227855</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.781606227855</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4655,10 +4655,10 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1525.74665604171</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>1156.784139101298</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D8" t="n">
-        <v>798.5184404945476</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>798.5184404945476</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>387.53253570494</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4843,13 +4843,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.8539665087372</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>154.8539665087372</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>154.8539665087372</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1393.269213435548</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1393.269213435548</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1104.140574649106</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1104.140574649106</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>814.7234046121455</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>814.7234046121455</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5302,22 +5302,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5345,25 +5345,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571612</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
@@ -5372,13 +5372,13 @@
         <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526318</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.6737565393115</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>634.6737565393115</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>484.5571171269758</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>336.6440235445826</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>336.6440235445826</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473456</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473456</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267569</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>1044.311772267569</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>816.3222213695512</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.3222213695512</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.8631874464246</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>955.5012031746817</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>955.5012031746817</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>955.5012031746817</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>727.5116522766643</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>727.5116522766643</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="20">
@@ -5764,34 +5764,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>498.905640096559</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>745.6707680030231</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>656.1762782006411</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>656.1762782006411</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1286.606873072428</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1286.606873072428</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>1286.606873072428</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1058.617322174411</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>837.8247430308809</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,13 +6004,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6071,25 +6071,25 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147082</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011341</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>807.3465877976912</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>638.4104048697843</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>488.2937654574486</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>340.3806718750554</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>193.4907243771451</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>193.4907243771451</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028587</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1338.821983525721</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1115.036568315227</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.787631771461</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.787631771461</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.9950526279309</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,46 +6211,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>474.7746905116418</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>721.5398184181058</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1028.859951698067</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>676.0189678006951</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C28" t="n">
-        <v>507.0827848727882</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>857.6674326309349</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W28" t="n">
-        <v>857.6674326309349</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X28" t="n">
-        <v>857.6674326309349</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y28" t="n">
-        <v>857.6674326309349</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="29">
@@ -6442,49 +6442,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,25 +6545,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.9110074201016</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C31" t="n">
-        <v>213.9110074201016</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D31" t="n">
-        <v>213.9110074201016</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E31" t="n">
-        <v>213.9110074201016</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.9110074201016</v>
+        <v>727.3132977373111</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6724,7 +6724,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3946.383537937098</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3777.447355009192</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929846</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>4576.814132808885</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4576.814132808885</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4576.814132808885</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4576.814132808885</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4348.824581910868</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4128.032002767338</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,52 +6916,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7007,34 +7007,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>226.2249729967965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>226.2249729967965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>226.2249729967965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>226.2249729967965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>226.2249729967965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>226.2249729967965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>675.007103038344</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>675.007103038344</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>447.0175521403266</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>226.2249729967965</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,28 +7153,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7183,37 +7183,37 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>709.4512536188992</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>436.7412337363556</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V43" t="n">
-        <v>895.8230080122524</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W43" t="n">
-        <v>895.8230080122524</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X43" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7733,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324571</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954965</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>130.9054447954965</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.9054447954965</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714825</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208048</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445216</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>213.2603911806622</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>62.79465928983075</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>62.79465928983205</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>93.3302234324719</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>78.37473406745994</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>79.76834915137033</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>273.9718588715608</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>53.60293177984551</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>149.3918182255363</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>90.96703739368792</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>36.76966481812269</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>160.6890796382926</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
-        <v>138.2683352386379</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>21.19602564639055</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>16.54007865287292</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>162.8602268606012</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>133.142098661519</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914264</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="F2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="J2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="G2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803339</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.4955803343</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="N2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="N2" t="n">
-        <v>625646.4955803342</v>
-      </c>
       <c r="O2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.495580334</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>5.391791546571767e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007451</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007424</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007409</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.73165600748</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007412</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163910.5901024483</v>
+        <v>-163910.5901024481</v>
       </c>
       <c r="C6" t="n">
-        <v>426057.2891120963</v>
+        <v>426057.2891120961</v>
       </c>
       <c r="D6" t="n">
-        <v>426057.2891120961</v>
+        <v>426057.2891120964</v>
       </c>
       <c r="E6" t="n">
-        <v>582.4014987138507</v>
+        <v>-392.1897610080385</v>
       </c>
       <c r="F6" t="n">
-        <v>525742.4379756094</v>
+        <v>524767.8467158887</v>
       </c>
       <c r="G6" t="n">
-        <v>525742.4379756103</v>
+        <v>524767.8467158885</v>
       </c>
       <c r="H6" t="n">
-        <v>525742.4379756098</v>
+        <v>524767.8467158884</v>
       </c>
       <c r="I6" t="n">
-        <v>525742.43797561</v>
+        <v>524767.8467158882</v>
       </c>
       <c r="J6" t="n">
-        <v>349319.2187830172</v>
+        <v>348344.6275232955</v>
       </c>
       <c r="K6" t="n">
-        <v>525742.4379756103</v>
+        <v>524767.8467158885</v>
       </c>
       <c r="L6" t="n">
-        <v>525742.4379756101</v>
+        <v>524767.8467158885</v>
       </c>
       <c r="M6" t="n">
-        <v>390941.4227417728</v>
+        <v>389966.8314820511</v>
       </c>
       <c r="N6" t="n">
-        <v>525742.43797561</v>
+        <v>524767.8467158882</v>
       </c>
       <c r="O6" t="n">
-        <v>525742.4379756101</v>
+        <v>524767.8467158886</v>
       </c>
       <c r="P6" t="n">
-        <v>525742.4379756103</v>
+        <v>524767.8467158884</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26761,22 +26761,22 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26798,13 +26798,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>259.2050593789322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>154.2703906151715</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>59.64484785945393</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>260.7609790260622</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.35401366847466</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>171.0077397360851</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>83.53051167506516</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>46.53208780508014</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458552</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361495</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298633</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35023,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081123</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349825</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005181</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504666</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523297</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686872</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187485</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081101</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951473</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>363.8358297686015</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
@@ -36448,19 +36448,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>269.8880742213555</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>213.3700978777713</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3086586.607419104</v>
+        <v>3091525.870268135</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>43.95772706123071</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>96.95377689311783</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>121.4312762797103</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>165.3902575986303</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>121.1693910461996</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>25.89211807707753</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.03250833502995</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>252.7077160573364</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274076</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>30.51875615035222</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>104.5905865511314</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>24.01153903325422</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>224.8952567231525</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>95.02525064967696</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896924</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>48.52899175806694</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648052004</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>76.27978370493992</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>143.5989393554747</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.89557371380221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185922</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2149.375138862102</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2149.375138862102</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>2149.375138862102</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>2149.375138862102</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y2" t="n">
-        <v>2149.375138862102</v>
+        <v>2520.971603332393</v>
       </c>
     </row>
     <row r="3">
@@ -4406,16 +4406,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4430,7 +4430,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>323.490784146265</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>176.6008366483547</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>176.6008366483547</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>176.6008366483547</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>383.5045402329973</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>383.5045402329973</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V4" t="n">
-        <v>383.5045402329973</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W4" t="n">
-        <v>383.5045402329973</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X4" t="n">
-        <v>383.5045402329973</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.5045402329973</v>
+        <v>471.4038777286581</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.946714969783</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C5" t="n">
-        <v>1485.946714969783</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="D5" t="n">
-        <v>1485.946714969783</v>
+        <v>909.0463493350958</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>909.0463493350958</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>498.0604445454882</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>80.0966364436751</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>80.0966364436751</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.946714969783</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.946714969783</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4661,34 +4661,34 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.6820060902423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
         <v>517.7458231623355</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,40 +4886,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.2823606383756</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1393.269213435548</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1393.269213435548</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1104.140574649106</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1104.140574649106</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>814.7234046121455</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>814.7234046121455</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>593.9308254686154</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
@@ -5706,19 +5706,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>1402.931168891562</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905256</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5837,16 +5837,16 @@
         <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5937,10 +5937,10 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
         <v>869.3083006011507</v>
@@ -5968,16 +5968,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6022,13 +6022,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6074,16 +6074,16 @@
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028587</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1338.821983525721</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1115.036568315227</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>825.9079295287855</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>825.9079295287855</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>825.9079295287855</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6223,10 +6223,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="27">
@@ -6293,19 +6293,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
         <v>674.428562457161</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352016</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150552</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170379</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6490,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>545.6648329070714</v>
+        <v>558.0926555785018</v>
       </c>
       <c r="C31" t="n">
-        <v>545.6648329070714</v>
+        <v>389.1564726505949</v>
       </c>
       <c r="D31" t="n">
-        <v>395.5481934947356</v>
+        <v>389.1564726505949</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6654,19 +6654,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W31" t="n">
-        <v>785.7936752260002</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7936752260002</v>
+        <v>558.0926555785018</v>
       </c>
       <c r="Y31" t="n">
-        <v>727.3132977373111</v>
+        <v>558.0926555785018</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,19 +7004,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
         <v>674.428562457161</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,25 +7153,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7183,37 +7183,37 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7241,19 +7241,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
         <v>674.428562457161</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7593,22 +7593,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324578</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954972</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229574</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>149.3132240315851</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>93.3302234324719</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>262.2258133653231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23946,16 +23946,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>61.34209567542487</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>157.112392674151</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>149.3918182255363</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>90.96703739368792</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.835023291094501</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>160.6890796382926</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="14">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914261</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914267</v>
@@ -26325,19 +26325,19 @@
         <v>625646.4955803341</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="I2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
         <v>625646.4955803341</v>
@@ -26349,13 +26349,13 @@
         <v>625646.4955803341</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007451</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007424</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007409</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007441</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007436</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007412</v>
+        <v>7916.731656007518</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007481</v>
@@ -26450,16 +26450,16 @@
         <v>7916.731656007481</v>
       </c>
       <c r="M4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007481</v>
       </c>
-      <c r="N4" t="n">
-        <v>7916.73165600748</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.73165600748</v>
-      </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007481</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163910.5901024481</v>
+        <v>-163910.5901024487</v>
       </c>
       <c r="C6" t="n">
-        <v>426057.2891120961</v>
+        <v>426057.2891120964</v>
       </c>
       <c r="D6" t="n">
         <v>426057.2891120964</v>
       </c>
       <c r="E6" t="n">
-        <v>-392.1897610080385</v>
+        <v>484.9423727416865</v>
       </c>
       <c r="F6" t="n">
-        <v>524767.8467158887</v>
+        <v>525644.9788496379</v>
       </c>
       <c r="G6" t="n">
-        <v>524767.8467158885</v>
+        <v>525644.9788496376</v>
       </c>
       <c r="H6" t="n">
-        <v>524767.8467158884</v>
+        <v>525644.978849638</v>
       </c>
       <c r="I6" t="n">
-        <v>524767.8467158882</v>
+        <v>525644.9788496378</v>
       </c>
       <c r="J6" t="n">
-        <v>348344.6275232955</v>
+        <v>349221.7596570449</v>
       </c>
       <c r="K6" t="n">
-        <v>524767.8467158885</v>
+        <v>525644.9788496379</v>
       </c>
       <c r="L6" t="n">
-        <v>524767.8467158885</v>
+        <v>525644.978849638</v>
       </c>
       <c r="M6" t="n">
-        <v>389966.8314820511</v>
+        <v>390843.9636158006</v>
       </c>
       <c r="N6" t="n">
-        <v>524767.8467158882</v>
+        <v>525644.9788496379</v>
       </c>
       <c r="O6" t="n">
-        <v>524767.8467158886</v>
+        <v>525644.9788496379</v>
       </c>
       <c r="P6" t="n">
-        <v>524767.8467158884</v>
+        <v>525644.9788496379</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,13 +26798,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>338.7761146022499</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>154.2703906151715</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>13.53434551262792</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>59.64484785945393</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>260.7609790260622</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>126.0391981677837</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.7994718469074</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>129.2226540149254</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734238</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504664</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36205,7 +36205,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
